--- a/magento/src/test/resources/Data/testdata.xlsx
+++ b/magento/src/test/resources/Data/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="330" windowWidth="15615" windowHeight="2955"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15615" windowHeight="6495" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M8"/>
+  <oleSize ref="A1:N20"/>
 </workbook>
 </file>
 
@@ -43,7 +43,7 @@
     <t>confirmpassword</t>
   </si>
   <si>
-    <t>raghavendrasir@gmail.com</t>
+    <t>skattelakirn@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -480,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/magento/src/test/resources/Data/testdata.xlsx
+++ b/magento/src/test/resources/Data/testdata.xlsx
@@ -457,7 +457,7 @@
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -468,11 +468,8 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -481,7 +478,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
